--- a/complete_data.xlsx
+++ b/complete_data.xlsx
@@ -4848,28 +4848,28 @@
         <v>105.63113</v>
       </c>
       <c r="AA19" t="n">
-        <v>106.76283</v>
+        <v>109.29092</v>
       </c>
       <c r="AB19" t="n">
         <v>119.15099</v>
       </c>
       <c r="AC19" t="n">
-        <v>118.98777</v>
+        <v>117.30902</v>
       </c>
       <c r="AD19" t="n">
-        <v>115.48193</v>
+        <v>117.69556</v>
       </c>
       <c r="AE19" t="n">
-        <v>111.78443</v>
+        <v>112.96988</v>
       </c>
       <c r="AF19" t="n">
-        <v>58.70533</v>
+        <v>56.65882</v>
       </c>
       <c r="AG19" t="n">
-        <v>100.32365</v>
+        <v>96.25435</v>
       </c>
       <c r="AH19" t="n">
-        <v>96.4671</v>
+        <v>98.90626999999999</v>
       </c>
       <c r="AI19" t="n">
         <v>18.38293273223894</v>
@@ -4896,25 +4896,25 @@
         <v>24.7096813155193</v>
       </c>
       <c r="AQ19" t="n">
-        <v>-5.504612762260363</v>
+        <v>-6.496200580190051</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.071369775178974</v>
+        <v>3.464688865867477</v>
       </c>
       <c r="AS19" t="n">
-        <v>5.290357757119082</v>
+        <v>9.74166881808458</v>
       </c>
       <c r="AT19" t="n">
-        <v>12.64460580891258</v>
+        <v>11.05534892980885</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.499642883428647</v>
+        <v>6.799225165401554</v>
       </c>
       <c r="AV19" t="n">
-        <v>9.325659964065522</v>
+        <v>11.42128272224297</v>
       </c>
       <c r="AW19" t="n">
-        <v>79.9344795438506</v>
+        <v>86.43369205359377</v>
       </c>
       <c r="AX19" t="n">
         <v>12.79912465198469</v>
@@ -4956,16 +4956,16 @@
         <v>-140.3714529749132</v>
       </c>
       <c r="BK19" t="n">
-        <v>-119.4631270436367</v>
+        <v>-153.3340807922854</v>
       </c>
       <c r="BL19" t="n">
-        <v>139.0123010470719</v>
+        <v>13.48516497795049</v>
       </c>
       <c r="BM19" t="n">
-        <v>-1.83146799830364</v>
+        <v>67.97918063312804</v>
       </c>
       <c r="BN19" t="n">
-        <v>-83.9879802495451</v>
+        <v>-85.191972773709</v>
       </c>
       <c r="BO19" t="n">
         <v>-1227.627448053461</v>
